--- a/data/trans_dic/P64D$noloshace_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P64D$noloshace_2023-Clase-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.05492023680463128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.07484052020878239</v>
+        <v>0.0748405202087824</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0629137026348925</v>
+        <v>0.06082443819404116</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03576424311769651</v>
+        <v>0.03426589658738113</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05523716818320219</v>
+        <v>0.0541237868734019</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1370849578199181</v>
+        <v>0.1336064496824104</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.082929602292534</v>
+        <v>0.08365304368837005</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09842637001744926</v>
+        <v>0.09796475719124068</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.07573487222424032</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.07492497268068227</v>
+        <v>0.07492497268068225</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04405693655073017</v>
+        <v>0.04530434989034726</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04924681287427235</v>
+        <v>0.05118977833466379</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05302028574926369</v>
+        <v>0.05400624221464332</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1185252420428515</v>
+        <v>0.118008655207887</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.110278198186094</v>
+        <v>0.1117681361579086</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1005309271962812</v>
+        <v>0.1047196743622058</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.1010587757361504</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.04612215133094721</v>
+        <v>0.0461221513309472</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01220290038159651</v>
+        <v>0.01163362294094056</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05654288441895308</v>
+        <v>0.05580195973657125</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02795315639015853</v>
+        <v>0.02814465721533169</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05686747157753735</v>
+        <v>0.0585793131359874</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1763334529975126</v>
+        <v>0.1712108230147312</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07102027536435242</v>
+        <v>0.07332733644465646</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01046371076480677</v>
+        <v>0.01064722241300887</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0124203705600873</v>
+        <v>0.01143064450702938</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01384715681361104</v>
+        <v>0.01324073107443885</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03560054541325201</v>
+        <v>0.03589557296686609</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03434729767030373</v>
+        <v>0.03430880068307768</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03054962613016092</v>
+        <v>0.03092981614111029</v>
       </c>
     </row>
     <row r="16">
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002369508796126696</v>
+        <v>0.004239174797271169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003331388330974504</v>
+        <v>0.003230983831759754</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02636297655988961</v>
+        <v>0.02514754269243475</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02583746470129527</v>
+        <v>0.03048261636087515</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01933447870493268</v>
+        <v>0.01898032677802119</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.04289537620740495</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.04105506573619388</v>
+        <v>0.04105506573619387</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.04209042823487459</v>
+        <v>0.04209042823487458</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03258021117515311</v>
+        <v>0.03359518872948155</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0330842244969617</v>
+        <v>0.03197554684842702</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03565483416278166</v>
+        <v>0.03561985240325086</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05388269490556776</v>
+        <v>0.05524305105150455</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05145462263665682</v>
+        <v>0.04960953094016132</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04986173229408273</v>
+        <v>0.05040801700123158</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>23436</v>
+        <v>22658</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11739</v>
+        <v>11247</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>38707</v>
+        <v>37927</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>51066</v>
+        <v>49771</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27220</v>
+        <v>27458</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>68972</v>
+        <v>68649</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13992</v>
+        <v>14389</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13351</v>
+        <v>13878</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>31213</v>
+        <v>31794</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>37643</v>
+        <v>37479</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29897</v>
+        <v>30301</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>59183</v>
+        <v>61649</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3278</v>
+        <v>3125</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4619</v>
+        <v>4559</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9792</v>
+        <v>9859</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15274</v>
+        <v>15734</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14405</v>
+        <v>13986</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24877</v>
+        <v>25686</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6442</v>
+        <v>6555</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5888</v>
+        <v>5419</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15090</v>
+        <v>14429</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>21919</v>
+        <v>22101</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16283</v>
+        <v>16265</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>33292</v>
+        <v>33706</v>
       </c>
     </row>
     <row r="20">
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>727</v>
+        <v>1301</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2043</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8071</v>
+        <v>7699</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7931</v>
+        <v>9357</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11854</v>
+        <v>11637</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>61269</v>
+        <v>63178</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>48371</v>
+        <v>46750</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>119181</v>
+        <v>119064</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>101330</v>
+        <v>103889</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>75230</v>
+        <v>72532</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>166670</v>
+        <v>168496</v>
       </c>
     </row>
     <row r="28">
